--- a/GPTW.xlsx
+++ b/GPTW.xlsx
@@ -30,867 +30,867 @@
   </si>
   <si>
     <t xml:space="preserve">
-                                1                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Cisco                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argentina, Australia, Brazil, Costa Rica, Canada, Greater China, Colombia, Germany, India, Ireland, Italy, Korea, Mexico, Nigeria, Peru, Poland, Portugal, Singapore, Spain, UAE, United Kingdom, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tecnologías de la información</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 72,094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                2                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Hilton                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia, Brazil, Canada, Greater China, Colombia, Germany, India, Italy, Mexico, Peru, Kingdom of Saudi Arabia, The Netherlands, Turkey, UAE, United Kingdom, United States</t>
+1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DHLExpress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonnBonnNorthRhine–WestphaliaGermany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:120,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Hilton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McLeanVirginiaUnitedStates</t>
   </si>
   <si>
     <t xml:space="preserve">Hospitalidad</t>
   </si>
   <si>
-    <t xml:space="preserve">Empleados: 171,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                3                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Salesforce                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argentina, Australia, Canada, France, Germany, India, Ireland, Japan, Singapore, The Netherlands, United Kingdom, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 40,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                4                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                DHL Express                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argentina, Australia, Austria, Bolivia, Brazil, Chile, Greater China, Colombia, Costa Rica, Denmark, Ecuador, El Salvador, France, Greece, Guatemala, Honduras, India, Ireland, Japan, Korea, México, Nicaragua, Norway, Panamá, Paraguay, Peru, Rep Dominicana, Kingdom of Saudi Arabia, Singapore, Sri Lanka, Switzerland, UAE, Uruguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transporte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 99,597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                5                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Mars, Incorporated                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argentina, Australia, Austria, Belgium, Brazil, Greater China, Denmark, Finland, France, India, Ireland, Italy, Japan, Korea, Norway, Portugal, Spain, Switzerland, United Kingdom, Una sola operación regional Centroamérica y Caribe, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufactura y producción</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 68,025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                6                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                SAP SE                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argentina, Australia, Brazil, Costa Rica, Canada, Chile, Greater China, Colombia, France, India, Ireland, Japan, Korea, Peru, Singapore, United Kingdom, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 92,174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                7                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                EY                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austria, Belgium, Canada, Greater China, France, India, Ireland, Korea, Mexico, Paraguay, Poland, Portugal, United Kingdom, Una sola operación regional Centroamérica y Caribe, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Servicios profesionales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 240,461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                8                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Stryker Corporation                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia, Brazil, Canada, Greater China, France, Italy, Japan, Korea, Mexico, Singapore, Spain, United Kingdom, United States</t>
+    <t xml:space="preserve">Empleados:150,050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Cisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SanJoseCaliforniaUnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tecnologíasdelainformación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:116,418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Salesforce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SanFranciscoCaliforniaUnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:86,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Millicom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LuxemborgLuxemborg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telecomunicaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:21,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+AbbVie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NorthChicagoIllinoisUnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biotecnologíayfarmacéutica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:50,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Deloitte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LondonEnglandUnitedKingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serviciosprofesionales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:415,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Hilti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SchaanLiechtenstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturayproducción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:32,092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SCJohnson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RacineWisconsinUnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:12,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Stryker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KalamazooMichiganUnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:48,025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Teleperformance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ParisIledeFranceFrance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:403,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Medtronic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DublinLeinsterIreland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:90,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+EY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:365,399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+VRIO:DIRECTV&amp;SKY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BuenosAiresBuenosAiresArgentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:7,300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SAPSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WalldorfBaden-WürttembergGermany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:112,106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Scotiabank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TorontoOntarioCanada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serviciosfinancierosyseguros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:89,500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Accenture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NewYorkNewYorkUnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:710,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Nestle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VeveyVaudSwitzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:270,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Cadence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SanJoseCaliforniaUnitedStaetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrónica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:9,797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MercadoLibre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:30,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+FedEx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MemphisTennesseeUnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:550,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Concentrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FremontCaliforniaUnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:290,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SopraSteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnnecyFranceFrance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:47,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Adobe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:28,167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Bristol-MyersSquibb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:32,200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina,Australia,Brazil,CostaRica,Canada,GreaterChina,Colombia,Germany,India,Ireland,Italy,Korea,Mexico,Nigeria,Peru,Poland,Portugal,Singapore,Spain,UAE,UnitedKingdom,UnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:72,094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia,Brazil,Canada,GreaterChina,Colombia,Germany,India,Italy,Mexico,Peru,KingdomofSaudiArabia,TheNetherlands,Turkey,UAE,UnitedKingdom,UnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:171,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina,Australia,Canada,France,Germany,India,Ireland,Japan,Singapore,TheNetherlands,UnitedKingdom,UnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:40,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina,Australia,Austria,Bolivia,Brazil,Chile,GreaterChina,Colombia,CostaRica,Denmark,Ecuador,ElSalvador,France,Greece,Guatemala,Honduras,India,Ireland,Japan,Korea,México,Nicaragua,Norway,Panamá,Paraguay,Peru,RepDominicana,KingdomofSaudiArabia,Singapore,SriLanka,Switzerland,UAE,Uruguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:99,597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Mars,Incorporated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina,Australia,Austria,Belgium,Brazil,GreaterChina,Denmark,Finland,France,India,Ireland,Italy,Japan,Korea,Norway,Portugal,Spain,Switzerland,UnitedKingdom,UnasolaoperaciónregionalCentroaméricayCaribe,UnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:68,025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina,Australia,Brazil,CostaRica,Canada,Chile,GreaterChina,Colombia,France,India,Ireland,Japan,Korea,Peru,Singapore,UnitedKingdom,UnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:92,174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria,Belgium,Canada,GreaterChina,France,India,Ireland,Korea,Mexico,Paraguay,Poland,Portugal,UnitedKingdom,UnasolaoperaciónregionalCentroaméricayCaribe,UnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:240,461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+StrykerCorporation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia,Brazil,Canada,GreaterChina,France,Italy,Japan,Korea,Mexico,Singapore,Spain,UnitedKingdom,UnitedStates</t>
   </si>
   <si>
     <t xml:space="preserve">Salud</t>
   </si>
   <si>
-    <t xml:space="preserve">Empleados: 32,701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                9                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                SAS                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia, Austria, Belgium, Canada, France, Germany, India, Ireland, Italy, Japan, Poland, Portugal, Kingdom of Saudi Arabia, Spain, Switzerland, The Netherlands, United Kingdom, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 13,939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                10                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Workday                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany, Ireland, Sweden, United Kingdom, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 11,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                11                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                The Adecco Group                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgium, Canada, Denmark, Germany, Ireland, Italy, Luxembourg, Poland, Singapore, Spain, Switzerland, The Netherlands, United Kingdom, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 34,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                12                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Roche                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgium, Brazil, Chile, Greater China, Colombia, Denmark, Ecuador, Korea, Peru, Uruguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biotecnología y farmacéutica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 94,442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                13                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Mercado Libre                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argentina, Brazil, Chile, Colombia, Mexico, Uruguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 8,655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                14                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                American Express                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">France, Italy, Japan, Mexico, Poland, Spain, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Servicios financieros y seguros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 55,809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                15                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Adobe                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia, Germany, India, Japan, United Kingdom, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 22,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                16                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                AbbVie                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia, Austria, Canada, Denmark, Finland, France, Germany, Greece, Ireland, Italy, Japan, Korea, Portugal, Kingdom of Saudi Arabia, Spain, Sweden, Switzerland, The Netherlands, Turkey, United Kingdom, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 30,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                17                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Intuit, Inc                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia, Canada, France, India, Singapore, United Kingdom, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 8,902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                18                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Admiral Group plc                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada, France, India, Italy, Spain, United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 7,857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                19                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Belcorp                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolivia, Chile, Costa Rica, Ecuador, El Salvador, Guatemala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 10,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                20                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Scotiabank                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peru, Costa Rica, Rep Dominicana, El Salvador, Panamá, Trinidad, Chile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 97,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                21                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Atento                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argentina, Chile, Colombia, El Salvador, Guatemala, México, Peru, Spain, Uruguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 154,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                22                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Natura                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argentina, Brazil, Chile, Colombia, Mexico, Peru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 6,836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                23                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                McDonald´s                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgium, Brazil, Ecuador, India, Panamá, Uruguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 210,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                24                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Santander                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argentina, Brazil, Chile, Denmark, Ireland, Mexico, Portugal, Uruguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 202,713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                25                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                AT&amp;T Latin America                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argentina, Chile, Colombia, Ecuador, Mexico, Peru, Uruguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telecomunicaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Jose, CA, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 79,304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonn, Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 104,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">McLean, VA, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 173,504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Francisco, CA, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 52,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Stryker                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalamazoo, MI, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 67,784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zurich, Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 45,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buenos Aires, Argentina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 13,058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cary, NC, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 13,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">London, United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 300,675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Intuit, Inc.                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mountain View, CA, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 9,382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walldorf, Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 95,853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cardiff, Wales, United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 11,243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chicago, IL, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Daimler Mobility AG                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stuttgart, Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 14,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Dell Technologies                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Round Rock, TX, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 165,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Cadence                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electrónica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 8,674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Marriott International, Inc                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bethesda, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 176,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Volvo Group                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gothenburg, Sweden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 100,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basel, Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 98,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Deloitte                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 334,800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madrid, Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 194,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">São Paulo, Brazil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 6,396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toronto, Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 111,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Jose, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 78,430</t>
-  </si>
-  <si>
-    <t xml:space="preserve">McLean, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 136,805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Chicago, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 48,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Francisco, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 60,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                3M                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maplewood, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 94,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                SC Johnson                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Racine, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 10,995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Amgen                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thousand Oaks, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 22,851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                SAP                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 102,400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Hilti AG                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schaan, Liechtenstein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 29,546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">London, United Kindgom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 318,087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cary, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 12,545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                AT&amp;T Latin America: AT&amp;T Mexico, Vrio, DIRECTV, SKY                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dallas, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 25,791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalamazoo, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 41,942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Novartis                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 107,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 9,187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Novo Nordisk                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bagsværd, Denmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 45,323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 24,651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 24,500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New York, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 63,700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Atlassian Inc                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sydney, Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 6,640</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Teleperformance                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paris, France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 380,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonn Bonn North Rhine–Westphalia Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 120,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">McLean Virginia United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 150,050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Jose California United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 116,418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Francisco California United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 86,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Millicom                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luxemborg  Luxemborg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 21,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Chicago Illinois United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 50,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">London England United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 415,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Hilti                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schaan  Liechtenstein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 32,092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Racine Wisconsin United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 12,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalamazoo Michigan United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 48,025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paris Ile de France France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 403,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Medtronic                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dublin Leinster Ireland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 90,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 365,399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                VRIO: DIRECTV &amp; SKY                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buenos Aires Buenos Aires Argentina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 7,300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walldorf Baden-Württemberg Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 112,106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toronto Ontario Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 89,500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Accenture                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">New York New York United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 710,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Nestle                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vevey Vaud Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 270,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Jose California United Staetes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 9,797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                FedEx                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memphis Tennessee United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 550,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Concentrix                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fremont California United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 290,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Sopra Steria                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annecy France France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 47,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 28,167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                Bristol-Myers Squibb                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleados: 32,200</t>
+    <t xml:space="preserve">Empleados:32,701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia,Austria,Belgium,Canada,France,Germany,India,Ireland,Italy,Japan,Poland,Portugal,KingdomofSaudiArabia,Spain,Switzerland,TheNetherlands,UnitedKingdom,UnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:13,939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Workday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany,Ireland,Sweden,UnitedKingdom,UnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:11,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TheAdeccoGroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium,Canada,Denmark,Germany,Ireland,Italy,Luxembourg,Poland,Singapore,Spain,Switzerland,TheNetherlands,UnitedKingdom,UnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:34,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Roche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium,Brazil,Chile,GreaterChina,Colombia,Denmark,Ecuador,Korea,Peru,Uruguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:94,442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina,Brazil,Chile,Colombia,Mexico,Uruguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:8,655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+AmericanExpress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France,Italy,Japan,Mexico,Poland,Spain,UnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:55,809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia,Germany,India,Japan,UnitedKingdom,UnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:22,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia,Austria,Canada,Denmark,Finland,France,Germany,Greece,Ireland,Italy,Japan,Korea,Portugal,KingdomofSaudiArabia,Spain,Sweden,Switzerland,TheNetherlands,Turkey,UnitedKingdom,UnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Intuit,Inc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia,Canada,France,India,Singapore,UnitedKingdom,UnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:8,902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+AdmiralGroupplc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada,France,India,Italy,Spain,UnitedKingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:7,857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Belcorp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia,Chile,CostaRica,Ecuador,ElSalvador,Guatemala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:10,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru,CostaRica,RepDominicana,ElSalvador,Panamá,Trinidad,Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:97,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Atento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina,Chile,Colombia,ElSalvador,Guatemala,México,Peru,Spain,Uruguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:154,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Natura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina,Brazil,Chile,Colombia,Mexico,Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:6,836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+McDonald´s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium,Brazil,Ecuador,India,Panamá,Uruguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:210,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Santander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina,Brazil,Chile,Denmark,Ireland,Mexico,Portugal,Uruguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:202,713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+AT&amp;TLatinAmerica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina,Chile,Colombia,Ecuador,Mexico,Peru,Uruguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SanJose,CA,UnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:79,304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonn,Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:104,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McLean,VA,UnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:173,504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SanFrancisco,CA,UnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:52,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalamazoo,MI,UnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:67,784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zurich,Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:45,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BuenosAires,Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:13,058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cary,NC,UnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:13,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">London,UnitedKingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:300,675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Intuit,Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MountainView,CA,UnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:9,382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walldorf,Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:95,853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardiff,Wales,UnitedKingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:11,243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago,IL,UnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DaimlerMobilityAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stuttgart,Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:14,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DellTechnologies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RoundRock,TX,UnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:165,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:8,674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MarriottInternational,Inc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bethesda,UnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:176,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+VolvoGroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gothenburg,Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:100,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basel,Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:98,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:334,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madrid,Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:194,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SãoPaulo,Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:6,396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toronto,Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:111,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SanJose,UnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:78,430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McLean,UnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:136,805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NorthChicago,UnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:48,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SanFrancisco,UnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:60,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+3M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maplewood,UnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:94,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Racine,UnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:10,995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Amgen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThousandOaks,UnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:22,851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:102,400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+HiltiAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schaan,Liechtenstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:29,546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">London,UnitedKindgom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:318,087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cary,UnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:12,545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+AT&amp;TLatinAmerica:AT&amp;TMexico,Vrio,DIRECTV,SKY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dallas,UnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:25,791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalamazoo,UnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:41,942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Novartis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:107,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:9,187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+NovoNordisk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bagsværd,Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:45,323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:24,651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:24,500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NewYork,UnitedStates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:63,700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+AtlassianInc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sydney,Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:6,640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paris,France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados:380,000</t>
   </si>
 </sst>
 </file>
@@ -1284,24 +1284,24 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
@@ -1335,109 +1335,109 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
         <v>59</v>
@@ -1451,112 +1451,112 @@
         <v>61</v>
       </c>
       <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
         <v>62</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
         <v>64</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>65</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
         <v>66</v>
-      </c>
-      <c r="D15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
         <v>69</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
         <v>70</v>
-      </c>
-      <c r="C16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
         <v>73</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>74</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>75</v>
-      </c>
-      <c r="D17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s">
         <v>77</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>78</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
         <v>79</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
         <v>81</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>82</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
         <v>83</v>
-      </c>
-      <c r="D19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
         <v>85</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>86</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>87</v>
-      </c>
-      <c r="D20" t="s">
-        <v>41</v>
       </c>
       <c r="E20" t="s">
         <v>88</v>
@@ -1570,98 +1570,98 @@
         <v>90</v>
       </c>
       <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
         <v>91</v>
-      </c>
-      <c r="D21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s">
         <v>93</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>94</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
         <v>95</v>
-      </c>
-      <c r="D22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" t="s">
         <v>97</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>98</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" t="s">
         <v>99</v>
-      </c>
-      <c r="D23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" t="s">
         <v>101</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>102</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
         <v>103</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" t="s">
         <v>105</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
         <v>106</v>
-      </c>
-      <c r="C25" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
         <v>109</v>
-      </c>
-      <c r="B26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" t="s">
-        <v>112</v>
-      </c>
-      <c r="E26" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27">
@@ -1669,16 +1669,16 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28">
@@ -1686,16 +1686,16 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
@@ -1703,33 +1703,33 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -1737,16 +1737,16 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
@@ -1754,118 +1754,118 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" t="s">
         <v>124</v>
-      </c>
-      <c r="D33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s">
         <v>126</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="E34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="C35" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E35" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="C36" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E36" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C37" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E37" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="C38" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E38" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39">
@@ -1873,118 +1873,118 @@
         <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E39" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E40" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="C41" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D41" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="E41" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="E42" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C43" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E43" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C44" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="D44" t="s">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="E44" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C45" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E45" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46">
@@ -1992,101 +1992,101 @@
         <v>89</v>
       </c>
       <c r="B46" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="C46" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D46" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="E46" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>160</v>
       </c>
       <c r="C47" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D47" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E47" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="D48" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E48" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="C49" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="D49" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E49" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>169</v>
       </c>
       <c r="C50" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D50" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="E50" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>172</v>
       </c>
       <c r="C51" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D51" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="E51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52">
@@ -2094,16 +2094,16 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>115</v>
+        <v>174</v>
       </c>
       <c r="D52" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E52" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53">
@@ -2114,13 +2114,13 @@
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54">
@@ -2131,30 +2131,30 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="D54" t="s">
         <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="D55" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="E55" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56">
@@ -2162,16 +2162,16 @@
         <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C56" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="E56" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57">
@@ -2179,118 +2179,118 @@
         <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="C57" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D57" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E57" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B58" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="C58" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D58" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E58" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B59" t="s">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="C59" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D59" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="E59" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B60" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="C60" t="s">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E60" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="D61" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E61" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B62" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C62" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D62" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E62" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D63" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E63" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64">
@@ -2298,118 +2298,118 @@
         <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="C64" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="D64" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E64" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="C65" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D65" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="E65" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="C66" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D66" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E66" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C67" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="D67" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="E67" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="C68" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="D68" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="E68" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>199</v>
+        <v>85</v>
       </c>
       <c r="C69" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="D69" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="E69" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B70" t="s">
-        <v>52</v>
+        <v>207</v>
       </c>
       <c r="C70" t="s">
-        <v>124</v>
+        <v>208</v>
       </c>
       <c r="D70" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E70" t="s">
-        <v>76</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71">
@@ -2417,101 +2417,101 @@
         <v>89</v>
       </c>
       <c r="B71" t="s">
-        <v>61</v>
+        <v>210</v>
       </c>
       <c r="C71" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c r="D71" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E71" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="C72" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
       <c r="D72" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E72" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B73" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C73" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="D73" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E73" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B74" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="C74" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D74" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="E74" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B75" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="C75" t="s">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="D75" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="E75" t="s">
-        <v>108</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B76" t="s">
-        <v>209</v>
+        <v>72</v>
       </c>
       <c r="C76" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="D76" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E76" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77">
@@ -2519,16 +2519,16 @@
         <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="D77" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78">
@@ -2536,16 +2536,16 @@
         <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D78" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E78" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="79">
@@ -2553,33 +2553,33 @@
         <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D79" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E79" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C80" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D80" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E80" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81">
@@ -2587,16 +2587,16 @@
         <v>24</v>
       </c>
       <c r="B81" t="s">
-        <v>220</v>
+        <v>21</v>
       </c>
       <c r="C81" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D81" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="E81" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82">
@@ -2604,118 +2604,118 @@
         <v>29</v>
       </c>
       <c r="B82" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="C82" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="D82" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E82" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B83" t="s">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="C83" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="D83" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E83" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B84" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C84" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="D84" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E84" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B85" t="s">
-        <v>176</v>
+        <v>238</v>
       </c>
       <c r="C85" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="D85" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E85" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B86" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="C86" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="D86" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="E86" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B87" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="C87" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D87" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E87" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B88" t="s">
-        <v>236</v>
+        <v>61</v>
       </c>
       <c r="C88" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D88" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E88" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="89">
@@ -2723,118 +2723,118 @@
         <v>60</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="C89" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="D89" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E89" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B90" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C90" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D90" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="E90" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C91" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="D91" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E91" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>252</v>
       </c>
       <c r="C92" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="D92" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="E92" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B93" t="s">
-        <v>247</v>
+        <v>85</v>
       </c>
       <c r="C93" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="D93" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="E93" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B94" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C94" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D94" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E94" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B95" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C95" t="s">
-        <v>253</v>
+        <v>184</v>
       </c>
       <c r="D95" t="s">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="E95" t="s">
-        <v>254</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96">
@@ -2842,101 +2842,526 @@
         <v>89</v>
       </c>
       <c r="B96" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="C96" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="D96" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E96" t="s">
-        <v>76</v>
+        <v>258</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B97" t="s">
-        <v>255</v>
+        <v>105</v>
       </c>
       <c r="C97" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="D97" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E97" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>258</v>
+        <v>143</v>
       </c>
       <c r="C98" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D98" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E98" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C99" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D99" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E99" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B100" t="s">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="C100" t="s">
         <v>216</v>
       </c>
       <c r="D100" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="E100" t="s">
-        <v>264</v>
+        <v>171</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B101" t="s">
+        <v>53</v>
+      </c>
+      <c r="C101" t="s">
         <v>265</v>
       </c>
-      <c r="C101" t="s">
-        <v>248</v>
-      </c>
       <c r="D101" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E101" t="s">
         <v>266</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" t="s">
+        <v>18</v>
+      </c>
+      <c r="E104" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>20</v>
+      </c>
+      <c r="B105" t="s">
+        <v>21</v>
+      </c>
+      <c r="C105" t="s">
+        <v>22</v>
+      </c>
+      <c r="D105" t="s">
+        <v>18</v>
+      </c>
+      <c r="E105" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>24</v>
+      </c>
+      <c r="B106" t="s">
+        <v>25</v>
+      </c>
+      <c r="C106" t="s">
+        <v>26</v>
+      </c>
+      <c r="D106" t="s">
+        <v>27</v>
+      </c>
+      <c r="E106" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>29</v>
+      </c>
+      <c r="B107" t="s">
+        <v>30</v>
+      </c>
+      <c r="C107" t="s">
+        <v>31</v>
+      </c>
+      <c r="D107" t="s">
+        <v>32</v>
+      </c>
+      <c r="E107" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>34</v>
+      </c>
+      <c r="B108" t="s">
+        <v>35</v>
+      </c>
+      <c r="C108" t="s">
+        <v>36</v>
+      </c>
+      <c r="D108" t="s">
+        <v>37</v>
+      </c>
+      <c r="E108" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>39</v>
+      </c>
+      <c r="B109" t="s">
+        <v>40</v>
+      </c>
+      <c r="C109" t="s">
+        <v>41</v>
+      </c>
+      <c r="D109" t="s">
+        <v>42</v>
+      </c>
+      <c r="E109" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>44</v>
+      </c>
+      <c r="B110" t="s">
+        <v>45</v>
+      </c>
+      <c r="C110" t="s">
+        <v>46</v>
+      </c>
+      <c r="D110" t="s">
+        <v>42</v>
+      </c>
+      <c r="E110" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>48</v>
+      </c>
+      <c r="B111" t="s">
+        <v>49</v>
+      </c>
+      <c r="C111" t="s">
+        <v>50</v>
+      </c>
+      <c r="D111" t="s">
+        <v>42</v>
+      </c>
+      <c r="E111" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>52</v>
+      </c>
+      <c r="B112" t="s">
+        <v>53</v>
+      </c>
+      <c r="C112" t="s">
+        <v>54</v>
+      </c>
+      <c r="D112" t="s">
+        <v>37</v>
+      </c>
+      <c r="E112" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>56</v>
+      </c>
+      <c r="B113" t="s">
+        <v>57</v>
+      </c>
+      <c r="C113" t="s">
+        <v>58</v>
+      </c>
+      <c r="D113" t="s">
+        <v>32</v>
+      </c>
+      <c r="E113" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>60</v>
+      </c>
+      <c r="B114" t="s">
+        <v>61</v>
+      </c>
+      <c r="C114" t="s">
+        <v>36</v>
+      </c>
+      <c r="D114" t="s">
+        <v>37</v>
+      </c>
+      <c r="E114" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>63</v>
+      </c>
+      <c r="B115" t="s">
+        <v>64</v>
+      </c>
+      <c r="C115" t="s">
+        <v>65</v>
+      </c>
+      <c r="D115" t="s">
+        <v>27</v>
+      </c>
+      <c r="E115" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>67</v>
+      </c>
+      <c r="B116" t="s">
+        <v>68</v>
+      </c>
+      <c r="C116" t="s">
+        <v>69</v>
+      </c>
+      <c r="D116" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>71</v>
+      </c>
+      <c r="B117" t="s">
+        <v>72</v>
+      </c>
+      <c r="C117" t="s">
+        <v>73</v>
+      </c>
+      <c r="D117" t="s">
+        <v>74</v>
+      </c>
+      <c r="E117" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>76</v>
+      </c>
+      <c r="B118" t="s">
+        <v>77</v>
+      </c>
+      <c r="C118" t="s">
+        <v>78</v>
+      </c>
+      <c r="D118" t="s">
+        <v>37</v>
+      </c>
+      <c r="E118" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>80</v>
+      </c>
+      <c r="B119" t="s">
+        <v>81</v>
+      </c>
+      <c r="C119" t="s">
+        <v>82</v>
+      </c>
+      <c r="D119" t="s">
+        <v>42</v>
+      </c>
+      <c r="E119" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>84</v>
+      </c>
+      <c r="B120" t="s">
+        <v>85</v>
+      </c>
+      <c r="C120" t="s">
+        <v>86</v>
+      </c>
+      <c r="D120" t="s">
+        <v>87</v>
+      </c>
+      <c r="E120" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>89</v>
+      </c>
+      <c r="B121" t="s">
+        <v>90</v>
+      </c>
+      <c r="C121" t="s">
+        <v>65</v>
+      </c>
+      <c r="D121" t="s">
+        <v>18</v>
+      </c>
+      <c r="E121" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>92</v>
+      </c>
+      <c r="B122" t="s">
+        <v>93</v>
+      </c>
+      <c r="C122" t="s">
+        <v>94</v>
+      </c>
+      <c r="D122" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>96</v>
+      </c>
+      <c r="B123" t="s">
+        <v>97</v>
+      </c>
+      <c r="C123" t="s">
+        <v>98</v>
+      </c>
+      <c r="D123" t="s">
+        <v>37</v>
+      </c>
+      <c r="E123" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>100</v>
+      </c>
+      <c r="B124" t="s">
+        <v>101</v>
+      </c>
+      <c r="C124" t="s">
+        <v>102</v>
+      </c>
+      <c r="D124" t="s">
+        <v>18</v>
+      </c>
+      <c r="E124" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>104</v>
+      </c>
+      <c r="B125" t="s">
+        <v>105</v>
+      </c>
+      <c r="C125" t="s">
+        <v>17</v>
+      </c>
+      <c r="D125" t="s">
+        <v>18</v>
+      </c>
+      <c r="E125" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>107</v>
+      </c>
+      <c r="B126" t="s">
+        <v>108</v>
+      </c>
+      <c r="C126" t="s">
+        <v>78</v>
+      </c>
+      <c r="D126" t="s">
+        <v>32</v>
+      </c>
+      <c r="E126" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
